--- a/src/analysis/python/data/undetermined_alternatives_og.xlsx
+++ b/src/analysis/python/data/undetermined_alternatives_og.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivergiesecke/Dropbox/MPCounterfactual/src/analysis/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8089A8D-F195-2543-9E42-50480D0C8695}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A83293-4917-3544-AB9A-C449371CD1A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="undetermined_alternatives_og" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -1187,7 +1187,10 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,7 +2717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" s="3" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>38111</v>
       </c>
@@ -3704,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="221" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" ht="153" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>39343</v>
       </c>
@@ -3741,7 +3744,9 @@
       <c r="N42" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O42" s="12"/>
+      <c r="O42" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="P42" t="s">
         <v>24</v>
       </c>
